--- a/data/pca/factorExposure/factorExposure_2019-06-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1188498042572663</v>
+        <v>0.07908571806215009</v>
       </c>
       <c r="C2">
-        <v>-0.0178515679512082</v>
+        <v>0.01143693794813934</v>
       </c>
       <c r="D2">
-        <v>-0.0184561868647828</v>
+        <v>-0.03038843755530003</v>
       </c>
       <c r="E2">
-        <v>-0.1100317755345634</v>
+        <v>-0.1426517950614635</v>
       </c>
       <c r="F2">
-        <v>-0.09556465664917778</v>
+        <v>-0.02321203163027292</v>
       </c>
       <c r="G2">
-        <v>0.1298052499441293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08641822007893782</v>
+      </c>
+      <c r="H2">
+        <v>-0.07787114624482658</v>
+      </c>
+      <c r="I2">
+        <v>0.05400891277225375</v>
+      </c>
+      <c r="J2">
+        <v>-0.0007291136638911237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2099984977441097</v>
+        <v>0.1644956516272044</v>
       </c>
       <c r="C3">
-        <v>0.07455265889362092</v>
+        <v>0.07921820346157188</v>
       </c>
       <c r="D3">
-        <v>0.08162563239388385</v>
+        <v>0.05746765035423944</v>
       </c>
       <c r="E3">
-        <v>-0.3297307521320349</v>
+        <v>-0.3615395479047765</v>
       </c>
       <c r="F3">
-        <v>-0.03081001259192639</v>
+        <v>-0.146338704091827</v>
       </c>
       <c r="G3">
-        <v>0.3586546715679912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.01826968387215505</v>
+      </c>
+      <c r="H3">
+        <v>-0.2515731622313617</v>
+      </c>
+      <c r="I3">
+        <v>0.1447426359649963</v>
+      </c>
+      <c r="J3">
+        <v>0.2387271143093371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09914518674068833</v>
+        <v>0.07424555179464964</v>
       </c>
       <c r="C4">
-        <v>0.01687056808875969</v>
+        <v>0.02954864265546201</v>
       </c>
       <c r="D4">
-        <v>0.001078894000005685</v>
+        <v>-0.01981301587897498</v>
       </c>
       <c r="E4">
-        <v>-0.08837869347241235</v>
+        <v>-0.08080818559015678</v>
       </c>
       <c r="F4">
-        <v>-0.05088610082403967</v>
+        <v>-0.06150409635624398</v>
       </c>
       <c r="G4">
-        <v>0.03182222943254442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03951703491119729</v>
+      </c>
+      <c r="H4">
+        <v>-0.03183505222854608</v>
+      </c>
+      <c r="I4">
+        <v>0.02318721108394889</v>
+      </c>
+      <c r="J4">
+        <v>0.04682059360301957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01052039552167011</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003680061668126372</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0008475133983691512</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005192381446773504</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.004407846633022229</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01280336046386538</v>
+      </c>
+      <c r="H6">
+        <v>-0.004921532067513263</v>
+      </c>
+      <c r="I6">
+        <v>0.00306045426334196</v>
+      </c>
+      <c r="J6">
+        <v>-0.001615222296405289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04405983532476068</v>
+        <v>0.03631337590588456</v>
       </c>
       <c r="C7">
-        <v>0.003285141983268843</v>
+        <v>0.01638838213218685</v>
       </c>
       <c r="D7">
-        <v>-0.0248545404726375</v>
+        <v>-0.016015999222381</v>
       </c>
       <c r="E7">
-        <v>-0.08016101023555408</v>
+        <v>-0.05423082832267555</v>
       </c>
       <c r="F7">
-        <v>0.03735802146553165</v>
+        <v>-0.03309486855228934</v>
       </c>
       <c r="G7">
-        <v>0.02148170532182329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01175871080015366</v>
+      </c>
+      <c r="H7">
+        <v>-0.04258627898518737</v>
+      </c>
+      <c r="I7">
+        <v>0.002081595176042803</v>
+      </c>
+      <c r="J7">
+        <v>0.02063633391837439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04115302307902037</v>
+        <v>0.03235959328605754</v>
       </c>
       <c r="C8">
-        <v>0.03251360607888892</v>
+        <v>0.0341194777321322</v>
       </c>
       <c r="D8">
-        <v>0.007407420770688394</v>
+        <v>-0.004859583830392062</v>
       </c>
       <c r="E8">
-        <v>-0.07175028384686569</v>
+        <v>-0.07201063759891944</v>
       </c>
       <c r="F8">
-        <v>-0.004704043771860616</v>
+        <v>-0.05424970971568235</v>
       </c>
       <c r="G8">
-        <v>0.05474579190438972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.004882298105778605</v>
+      </c>
+      <c r="H8">
+        <v>-0.051212027970114</v>
+      </c>
+      <c r="I8">
+        <v>0.03617557474560625</v>
+      </c>
+      <c r="J8">
+        <v>0.03163978937000791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08781006449373303</v>
+        <v>0.06445770011608948</v>
       </c>
       <c r="C9">
-        <v>0.01774607549802168</v>
+        <v>0.02936001983636642</v>
       </c>
       <c r="D9">
-        <v>-0.01403488568424702</v>
+        <v>-0.02203315931240145</v>
       </c>
       <c r="E9">
-        <v>-0.07784378596154841</v>
+        <v>-0.07583401066311564</v>
       </c>
       <c r="F9">
-        <v>-0.03315206454945926</v>
+        <v>-0.06620027808069331</v>
       </c>
       <c r="G9">
-        <v>0.03058635442004818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.03127939200841422</v>
+      </c>
+      <c r="H9">
+        <v>-0.02890848776149798</v>
+      </c>
+      <c r="I9">
+        <v>0.01137820927177981</v>
+      </c>
+      <c r="J9">
+        <v>0.008906060469867074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02011662249818668</v>
+        <v>0.005393105779319593</v>
       </c>
       <c r="C10">
-        <v>-0.1590616934016461</v>
+        <v>-0.1594759181617213</v>
       </c>
       <c r="D10">
-        <v>0.007394303609193541</v>
+        <v>0.0100665005348103</v>
       </c>
       <c r="E10">
-        <v>-0.03920097281472937</v>
+        <v>-0.05101552589412835</v>
       </c>
       <c r="F10">
-        <v>-0.003753684571542574</v>
+        <v>-0.004358861189141076</v>
       </c>
       <c r="G10">
-        <v>-0.005842364212637007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01418629758307125</v>
+      </c>
+      <c r="H10">
+        <v>0.02262494619757874</v>
+      </c>
+      <c r="I10">
+        <v>0.1189238657034966</v>
+      </c>
+      <c r="J10">
+        <v>0.03237910588380823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05966066877026219</v>
+        <v>0.0511333800478027</v>
       </c>
       <c r="C11">
-        <v>-0.001535210888865452</v>
+        <v>0.01684689208108735</v>
       </c>
       <c r="D11">
-        <v>0.01448013388403024</v>
+        <v>-0.003660598894508721</v>
       </c>
       <c r="E11">
-        <v>-0.04315999048118465</v>
+        <v>-0.04819568337536193</v>
       </c>
       <c r="F11">
-        <v>-0.006298568410439647</v>
+        <v>-0.006641131070365187</v>
       </c>
       <c r="G11">
-        <v>-0.00421732939140054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.004879152858118429</v>
+      </c>
+      <c r="H11">
+        <v>-0.01835439436918365</v>
+      </c>
+      <c r="I11">
+        <v>-0.01359412540123903</v>
+      </c>
+      <c r="J11">
+        <v>0.003065505770120087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04999813167424789</v>
+        <v>0.04932461158792462</v>
       </c>
       <c r="C12">
-        <v>0.00269107406958925</v>
+        <v>0.01692070643566635</v>
       </c>
       <c r="D12">
-        <v>0.008229808617541589</v>
+        <v>-0.006694902260892068</v>
       </c>
       <c r="E12">
-        <v>-0.02735978843646201</v>
+        <v>-0.02321862928215034</v>
       </c>
       <c r="F12">
-        <v>0.003720725074789998</v>
+        <v>-0.01835247350400649</v>
       </c>
       <c r="G12">
-        <v>0.0004425055783095754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0006527080833854803</v>
+      </c>
+      <c r="H12">
+        <v>-0.007316089178217988</v>
+      </c>
+      <c r="I12">
+        <v>-0.01891494016122494</v>
+      </c>
+      <c r="J12">
+        <v>-0.002050003257242469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05862732209119584</v>
+        <v>0.04078953615136122</v>
       </c>
       <c r="C13">
-        <v>0.01520260474385437</v>
+        <v>0.01928992744840709</v>
       </c>
       <c r="D13">
-        <v>0.02486364500490809</v>
+        <v>-0.001222713224031958</v>
       </c>
       <c r="E13">
-        <v>-0.1142113868400022</v>
+        <v>-0.1057493732163766</v>
       </c>
       <c r="F13">
-        <v>-0.02048734405718391</v>
+        <v>-0.01867050506537437</v>
       </c>
       <c r="G13">
-        <v>0.04864000337366054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.00615957809074569</v>
+      </c>
+      <c r="H13">
+        <v>-0.05306801287250845</v>
+      </c>
+      <c r="I13">
+        <v>0.02153806171829485</v>
+      </c>
+      <c r="J13">
+        <v>0.00175553762802689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.0375865373016943</v>
+        <v>0.02873048917598629</v>
       </c>
       <c r="C14">
-        <v>0.004765011656028447</v>
+        <v>0.0129405513701813</v>
       </c>
       <c r="D14">
-        <v>-0.01468745894145185</v>
+        <v>-0.01953941023462542</v>
       </c>
       <c r="E14">
-        <v>-0.02706616661019145</v>
+        <v>-0.03574309154410329</v>
       </c>
       <c r="F14">
-        <v>-0.003007837861026649</v>
+        <v>-0.02440031593795113</v>
       </c>
       <c r="G14">
-        <v>0.04796647519665716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01688276321886729</v>
+      </c>
+      <c r="H14">
+        <v>-0.05826465590227783</v>
+      </c>
+      <c r="I14">
+        <v>0.02398004477613944</v>
+      </c>
+      <c r="J14">
+        <v>0.004567631139341547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05238465031533295</v>
+        <v>0.04387477327484213</v>
       </c>
       <c r="C16">
-        <v>0.01661972579876559</v>
+        <v>0.02579564592388468</v>
       </c>
       <c r="D16">
-        <v>0.02468452399020974</v>
+        <v>0.002809321913023915</v>
       </c>
       <c r="E16">
-        <v>-0.03958847222401731</v>
+        <v>-0.04381747627667393</v>
       </c>
       <c r="F16">
-        <v>0.0003147363086405004</v>
+        <v>-0.01052390618883831</v>
       </c>
       <c r="G16">
-        <v>-0.006205008654954048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.002027519909336125</v>
+      </c>
+      <c r="H16">
+        <v>-0.01830352614240995</v>
+      </c>
+      <c r="I16">
+        <v>-0.01346624392792433</v>
+      </c>
+      <c r="J16">
+        <v>0.005410204223645985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04830473714849786</v>
+        <v>0.04839908876505787</v>
       </c>
       <c r="C19">
-        <v>0.02703944088565523</v>
+        <v>0.03128541792145104</v>
       </c>
       <c r="D19">
-        <v>0.01105401444783269</v>
+        <v>-0.002305065153571082</v>
       </c>
       <c r="E19">
-        <v>-0.07981128099446026</v>
+        <v>-0.09181938333945078</v>
       </c>
       <c r="F19">
-        <v>-0.00655950191109078</v>
+        <v>-0.04031723940005289</v>
       </c>
       <c r="G19">
-        <v>0.07608887183371121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.001195703497520844</v>
+      </c>
+      <c r="H19">
+        <v>-0.07362891821391293</v>
+      </c>
+      <c r="I19">
+        <v>0.06022402072727615</v>
+      </c>
+      <c r="J19">
+        <v>-0.0005718810187287954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03605712651591656</v>
+        <v>0.02006038353994778</v>
       </c>
       <c r="C20">
-        <v>0.02954929790196967</v>
+        <v>0.0309937143998777</v>
       </c>
       <c r="D20">
-        <v>0.003518837469885541</v>
+        <v>-0.00943135836656871</v>
       </c>
       <c r="E20">
-        <v>-0.0768299934860464</v>
+        <v>-0.07042271619798926</v>
       </c>
       <c r="F20">
-        <v>0.003201804637215012</v>
+        <v>-0.04023897071003062</v>
       </c>
       <c r="G20">
-        <v>0.05853305893224912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.001393279545588463</v>
+      </c>
+      <c r="H20">
+        <v>-0.07383090851735249</v>
+      </c>
+      <c r="I20">
+        <v>0.01908722840394452</v>
+      </c>
+      <c r="J20">
+        <v>0.03955340738740564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03770231980771343</v>
+        <v>0.01673086174066103</v>
       </c>
       <c r="C21">
-        <v>0.01045177429398766</v>
+        <v>0.02189579282298961</v>
       </c>
       <c r="D21">
-        <v>0.01974829196507834</v>
+        <v>0.0105218095268656</v>
       </c>
       <c r="E21">
-        <v>-0.091216887946951</v>
+        <v>-0.07933285597533346</v>
       </c>
       <c r="F21">
-        <v>-0.04185909339528331</v>
+        <v>-0.03631498609154059</v>
       </c>
       <c r="G21">
-        <v>0.0509510843733519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01992326927287393</v>
+      </c>
+      <c r="H21">
+        <v>-0.04273738496115832</v>
+      </c>
+      <c r="I21">
+        <v>-0.003991140354457441</v>
+      </c>
+      <c r="J21">
+        <v>-0.01231313425709454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04737021933842631</v>
+        <v>0.04144422860717308</v>
       </c>
       <c r="C24">
-        <v>0.009213827643690062</v>
+        <v>0.01556754140531465</v>
       </c>
       <c r="D24">
-        <v>0.0123722662987422</v>
+        <v>-0.003308351760904217</v>
       </c>
       <c r="E24">
-        <v>-0.05408788701807816</v>
+        <v>-0.04811799145207486</v>
       </c>
       <c r="F24">
-        <v>-0.003020480081030946</v>
+        <v>-0.01209927970157577</v>
       </c>
       <c r="G24">
-        <v>-0.008395522171299328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.008178133286934621</v>
+      </c>
+      <c r="H24">
+        <v>-0.01501280034543976</v>
+      </c>
+      <c r="I24">
+        <v>-0.01042919759876778</v>
+      </c>
+      <c r="J24">
+        <v>0.01007362898509168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05076141634270478</v>
+        <v>0.04443411539576198</v>
       </c>
       <c r="C25">
-        <v>-0.001435272479392279</v>
+        <v>0.0152188287030132</v>
       </c>
       <c r="D25">
-        <v>0.01285176099721288</v>
+        <v>-0.001555808283723317</v>
       </c>
       <c r="E25">
-        <v>-0.04245118946277222</v>
+        <v>-0.04810205707758362</v>
       </c>
       <c r="F25">
-        <v>-0.003456307274575911</v>
+        <v>-0.01495151286437132</v>
       </c>
       <c r="G25">
-        <v>-0.007923280699458584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002628527615334001</v>
+      </c>
+      <c r="H25">
+        <v>-0.009448422367229661</v>
+      </c>
+      <c r="I25">
+        <v>-0.01448523933185933</v>
+      </c>
+      <c r="J25">
+        <v>0.000353279516627141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.002344698182993635</v>
+        <v>0.0101499014003079</v>
       </c>
       <c r="C26">
-        <v>0.01511388155963149</v>
+        <v>0.01574299252889106</v>
       </c>
       <c r="D26">
-        <v>-0.001746985119579756</v>
+        <v>0.005460915663529704</v>
       </c>
       <c r="E26">
-        <v>-0.05698199701713619</v>
+        <v>-0.06033477958963925</v>
       </c>
       <c r="F26">
-        <v>-0.02236819996965252</v>
+        <v>-0.00542463006816769</v>
       </c>
       <c r="G26">
-        <v>0.01830485186392344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01017228611597226</v>
+      </c>
+      <c r="H26">
+        <v>-0.03374702771654608</v>
+      </c>
+      <c r="I26">
+        <v>-0.000941174589517221</v>
+      </c>
+      <c r="J26">
+        <v>0.01896652794524667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1096584104674954</v>
+        <v>0.08978399700696241</v>
       </c>
       <c r="C27">
-        <v>0.003502930509021623</v>
+        <v>0.01839146228230274</v>
       </c>
       <c r="D27">
-        <v>-0.007503964836623095</v>
+        <v>-0.02753791996501704</v>
       </c>
       <c r="E27">
-        <v>-0.1099993618248283</v>
+        <v>-0.07805221440407002</v>
       </c>
       <c r="F27">
-        <v>-0.004227072425326354</v>
+        <v>-0.05062739774156085</v>
       </c>
       <c r="G27">
-        <v>-0.01663391424624945</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.000323426551904208</v>
+      </c>
+      <c r="H27">
+        <v>-0.00634469368212615</v>
+      </c>
+      <c r="I27">
+        <v>0.0009519089131378642</v>
+      </c>
+      <c r="J27">
+        <v>0.02156319200823189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.0248047064057206</v>
+        <v>0.01205928020054254</v>
       </c>
       <c r="C28">
-        <v>-0.2365807057353043</v>
+        <v>-0.2305930730427972</v>
       </c>
       <c r="D28">
-        <v>0.01860835524204562</v>
+        <v>0.01456796529115423</v>
       </c>
       <c r="E28">
-        <v>-0.02249473280185769</v>
+        <v>-0.03961976313475139</v>
       </c>
       <c r="F28">
-        <v>-0.006743190777089478</v>
+        <v>-0.001436962456220634</v>
       </c>
       <c r="G28">
-        <v>-0.04137395358595663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01739455700770898</v>
+      </c>
+      <c r="H28">
+        <v>0.04710688278113705</v>
+      </c>
+      <c r="I28">
+        <v>0.1597591503639693</v>
+      </c>
+      <c r="J28">
+        <v>0.06021897238060572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02127060468065552</v>
+        <v>0.01993787984486957</v>
       </c>
       <c r="C29">
-        <v>0.01531263029290222</v>
+        <v>0.01829197075238789</v>
       </c>
       <c r="D29">
-        <v>-0.01494773998635934</v>
+        <v>-0.01605578519687781</v>
       </c>
       <c r="E29">
-        <v>-0.04099635901167187</v>
+        <v>-0.03389684830885825</v>
       </c>
       <c r="F29">
-        <v>-0.01731853519368693</v>
+        <v>-0.03442445000709305</v>
       </c>
       <c r="G29">
-        <v>0.04792469663931503</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02134607492773458</v>
+      </c>
+      <c r="H29">
+        <v>-0.05750200276128545</v>
+      </c>
+      <c r="I29">
+        <v>0.01334580801242706</v>
+      </c>
+      <c r="J29">
+        <v>0.002875751974522865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1049744537792082</v>
+        <v>0.1031412399107601</v>
       </c>
       <c r="C30">
-        <v>-0.000874642571813977</v>
+        <v>0.02817994707243819</v>
       </c>
       <c r="D30">
-        <v>0.00110414258855651</v>
+        <v>-0.02478629957563293</v>
       </c>
       <c r="E30">
-        <v>-0.1358555471010755</v>
+        <v>-0.1138398199554424</v>
       </c>
       <c r="F30">
-        <v>-0.01258404448717916</v>
+        <v>-0.02778101928238577</v>
       </c>
       <c r="G30">
-        <v>-0.06815891203265197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.02175314697439992</v>
+      </c>
+      <c r="H30">
+        <v>-0.01256442026199368</v>
+      </c>
+      <c r="I30">
+        <v>-0.03209529967517049</v>
+      </c>
+      <c r="J30">
+        <v>-0.01450619394084821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05647204180074888</v>
+        <v>0.05708394227092985</v>
       </c>
       <c r="C31">
-        <v>0.009266286107948052</v>
+        <v>0.01642867002317952</v>
       </c>
       <c r="D31">
-        <v>-0.01404596009447216</v>
+        <v>-0.01451854666586353</v>
       </c>
       <c r="E31">
-        <v>0.005024527900569719</v>
+        <v>-0.01868919767392672</v>
       </c>
       <c r="F31">
-        <v>-0.02112475061050629</v>
+        <v>0.01441438684197804</v>
       </c>
       <c r="G31">
-        <v>0.02263466589944351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03832369462915894</v>
+      </c>
+      <c r="H31">
+        <v>-0.04534789164296735</v>
+      </c>
+      <c r="I31">
+        <v>0.01976492762539889</v>
+      </c>
+      <c r="J31">
+        <v>0.004337884357823682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06725748180152802</v>
+        <v>0.0476153676574177</v>
       </c>
       <c r="C32">
-        <v>0.01710973583112326</v>
+        <v>0.04073323104427362</v>
       </c>
       <c r="D32">
-        <v>0.003189888152251198</v>
+        <v>-0.01331191070828427</v>
       </c>
       <c r="E32">
-        <v>-0.1246946226960652</v>
+        <v>-0.09573293757590388</v>
       </c>
       <c r="F32">
-        <v>0.01374855096719961</v>
+        <v>-0.05393818499432648</v>
       </c>
       <c r="G32">
-        <v>0.04074652250692668</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01216725466088957</v>
+      </c>
+      <c r="H32">
+        <v>-0.05341687374901765</v>
+      </c>
+      <c r="I32">
+        <v>0.02551784880760437</v>
+      </c>
+      <c r="J32">
+        <v>-0.01345613371220032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06953076739414762</v>
+        <v>0.05999227087271861</v>
       </c>
       <c r="C33">
-        <v>0.02219915191834941</v>
+        <v>0.03941114539268947</v>
       </c>
       <c r="D33">
-        <v>0.001074082411725068</v>
+        <v>-0.0007757450795135076</v>
       </c>
       <c r="E33">
-        <v>-0.07773402074678878</v>
+        <v>-0.08768327786038191</v>
       </c>
       <c r="F33">
-        <v>-0.03753528577676551</v>
+        <v>-0.02083303290490137</v>
       </c>
       <c r="G33">
-        <v>0.02587263384546332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01865593237567173</v>
+      </c>
+      <c r="H33">
+        <v>-0.04834715037912597</v>
+      </c>
+      <c r="I33">
+        <v>-0.01064864058118966</v>
+      </c>
+      <c r="J33">
+        <v>0.006394695427527342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04781152701608504</v>
+        <v>0.0429066456398465</v>
       </c>
       <c r="C34">
-        <v>0.009227065607778156</v>
+        <v>0.02146311287356236</v>
       </c>
       <c r="D34">
-        <v>0.01139087877009779</v>
+        <v>-0.007311111638412592</v>
       </c>
       <c r="E34">
-        <v>-0.02718841317000715</v>
+        <v>-0.0388303933008883</v>
       </c>
       <c r="F34">
-        <v>0.002186586720001005</v>
+        <v>-0.01029571410121372</v>
       </c>
       <c r="G34">
-        <v>0.01246603463940318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.00133069649763127</v>
+      </c>
+      <c r="H34">
+        <v>-0.02238297264739819</v>
+      </c>
+      <c r="I34">
+        <v>-0.01179362249829908</v>
+      </c>
+      <c r="J34">
+        <v>-0.005840931944359932</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01182249810359809</v>
+        <v>0.01359507350552806</v>
       </c>
       <c r="C36">
-        <v>-0.01023253461961383</v>
+        <v>-0.0005706114737510788</v>
       </c>
       <c r="D36">
-        <v>-0.002756689050955163</v>
+        <v>-0.006017618354343233</v>
       </c>
       <c r="E36">
-        <v>-0.02748228488556077</v>
+        <v>-0.02958521041308798</v>
       </c>
       <c r="F36">
-        <v>-0.01403303043865917</v>
+        <v>-0.01451090366844464</v>
       </c>
       <c r="G36">
-        <v>0.01601595095394065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01903131380876236</v>
+      </c>
+      <c r="H36">
+        <v>-0.03291263298000036</v>
+      </c>
+      <c r="I36">
+        <v>0.008773137198421746</v>
+      </c>
+      <c r="J36">
+        <v>-0.004527720004967718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05431649193728506</v>
+        <v>0.03094648212038462</v>
       </c>
       <c r="C38">
-        <v>0.0009424595907542379</v>
+        <v>0.00726918822820662</v>
       </c>
       <c r="D38">
-        <v>-0.01738670494747724</v>
+        <v>-0.005334977502142687</v>
       </c>
       <c r="E38">
-        <v>-0.0400414858190191</v>
+        <v>-0.04780347665752075</v>
       </c>
       <c r="F38">
-        <v>-0.01115231126515801</v>
+        <v>-0.02331655012360741</v>
       </c>
       <c r="G38">
-        <v>0.03352181852284835</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02069836496625636</v>
+      </c>
+      <c r="H38">
+        <v>-0.01375374356670568</v>
+      </c>
+      <c r="I38">
+        <v>0.002972596174264617</v>
+      </c>
+      <c r="J38">
+        <v>-0.02375237363344698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07678471579216684</v>
+        <v>0.06310222593447253</v>
       </c>
       <c r="C39">
-        <v>0.006958861014531661</v>
+        <v>0.0297587682309909</v>
       </c>
       <c r="D39">
-        <v>0.007380450492712361</v>
+        <v>-0.01726032992018504</v>
       </c>
       <c r="E39">
-        <v>-0.04986938073386896</v>
+        <v>-0.06309750816041371</v>
       </c>
       <c r="F39">
-        <v>-0.01919987183841577</v>
+        <v>-0.007090382086895948</v>
       </c>
       <c r="G39">
-        <v>-0.006871256380059219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.00977930527921763</v>
+      </c>
+      <c r="H39">
+        <v>-0.01769050096417854</v>
+      </c>
+      <c r="I39">
+        <v>-0.02668196913446158</v>
+      </c>
+      <c r="J39">
+        <v>-0.007784698438831535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07270564811691146</v>
+        <v>0.05709279634343389</v>
       </c>
       <c r="C40">
-        <v>0.02648069294587355</v>
+        <v>0.03288455788607927</v>
       </c>
       <c r="D40">
-        <v>0.01508242051364379</v>
+        <v>-0.01665480713662861</v>
       </c>
       <c r="E40">
-        <v>-0.1169961390231933</v>
+        <v>-0.1151186462375835</v>
       </c>
       <c r="F40">
-        <v>-0.03219376005523725</v>
+        <v>-0.01136784800580018</v>
       </c>
       <c r="G40">
-        <v>0.08860241346357432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.00284370133245194</v>
+      </c>
+      <c r="H40">
+        <v>-0.08031691730796656</v>
+      </c>
+      <c r="I40">
+        <v>0.01766878282107219</v>
+      </c>
+      <c r="J40">
+        <v>0.02248926995856413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003670393176216983</v>
+        <v>0.0009543008132542365</v>
       </c>
       <c r="C41">
-        <v>0.009312307424518279</v>
+        <v>0.009390501125093504</v>
       </c>
       <c r="D41">
-        <v>-0.0115877344050833</v>
+        <v>-0.002954872862107342</v>
       </c>
       <c r="E41">
-        <v>-0.01788170664675821</v>
+        <v>-0.01801586991157393</v>
       </c>
       <c r="F41">
-        <v>-0.02799258637447316</v>
+        <v>-0.01003124887584868</v>
       </c>
       <c r="G41">
-        <v>0.03160058910868368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03067731108666155</v>
+      </c>
+      <c r="H41">
+        <v>-0.0362736846447903</v>
+      </c>
+      <c r="I41">
+        <v>0.02616459181836948</v>
+      </c>
+      <c r="J41">
+        <v>0.01464212593101713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1458502427418392</v>
+        <v>0.2476540862587381</v>
       </c>
       <c r="C42">
-        <v>0.1708611423126873</v>
+        <v>0.1084742234936738</v>
       </c>
       <c r="D42">
-        <v>0.9220756540191112</v>
+        <v>0.912768652246171</v>
       </c>
       <c r="E42">
-        <v>0.1349231720184889</v>
+        <v>0.123086430391861</v>
       </c>
       <c r="F42">
-        <v>0.03271621925665765</v>
+        <v>0.2140277108512123</v>
       </c>
       <c r="G42">
-        <v>-0.1595169080040409</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.01052079637558401</v>
+      </c>
+      <c r="H42">
+        <v>0.01901966195547664</v>
+      </c>
+      <c r="I42">
+        <v>0.04531220338235107</v>
+      </c>
+      <c r="J42">
+        <v>0.01927978410792135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008339112899168083</v>
+        <v>0.002862995561361377</v>
       </c>
       <c r="C43">
-        <v>0.01151889508301666</v>
+        <v>0.0119371805089018</v>
       </c>
       <c r="D43">
-        <v>-0.01250176933131706</v>
+        <v>-0.003137807437161741</v>
       </c>
       <c r="E43">
-        <v>-0.03827728485006037</v>
+        <v>-0.03086869355557076</v>
       </c>
       <c r="F43">
-        <v>-0.0006840630196503272</v>
+        <v>-0.01168738424948951</v>
       </c>
       <c r="G43">
-        <v>0.02545086080683199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.009000542835724936</v>
+      </c>
+      <c r="H43">
+        <v>-0.03459276993426257</v>
+      </c>
+      <c r="I43">
+        <v>0.01514971726909966</v>
+      </c>
+      <c r="J43">
+        <v>0.01280332977417455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04491462823752126</v>
+        <v>0.0300315729458434</v>
       </c>
       <c r="C44">
-        <v>0.03166382974055439</v>
+        <v>0.03032963379116084</v>
       </c>
       <c r="D44">
-        <v>0.008328805674554029</v>
+        <v>0.005514479663433022</v>
       </c>
       <c r="E44">
-        <v>-0.1172371196808883</v>
+        <v>-0.1186086979821863</v>
       </c>
       <c r="F44">
-        <v>-0.06194019581337382</v>
+        <v>-0.04607782256535358</v>
       </c>
       <c r="G44">
-        <v>0.1292129773023059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0334364651439004</v>
+      </c>
+      <c r="H44">
+        <v>-0.1114742802356547</v>
+      </c>
+      <c r="I44">
+        <v>0.03857625322049106</v>
+      </c>
+      <c r="J44">
+        <v>0.007020239636524496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02218565555265309</v>
+        <v>0.02164339853245474</v>
       </c>
       <c r="C46">
-        <v>0.01154942970823699</v>
+        <v>0.02420427321535646</v>
       </c>
       <c r="D46">
-        <v>-0.020439886219075</v>
+        <v>-0.01443916886130708</v>
       </c>
       <c r="E46">
-        <v>-0.02688337720938214</v>
+        <v>-0.04608710083453328</v>
       </c>
       <c r="F46">
-        <v>-0.0306069593093575</v>
+        <v>-0.0179225603823907</v>
       </c>
       <c r="G46">
-        <v>0.04670628277941612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02019321444152979</v>
+      </c>
+      <c r="H46">
+        <v>-0.06044013336192291</v>
+      </c>
+      <c r="I46">
+        <v>0.01695827358677354</v>
+      </c>
+      <c r="J46">
+        <v>0.02085462978486442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08012743081430995</v>
+        <v>0.08857928778768459</v>
       </c>
       <c r="C47">
-        <v>0.00188253363120032</v>
+        <v>0.01329798348790981</v>
       </c>
       <c r="D47">
-        <v>-0.01670072617349487</v>
+        <v>-0.02189691545900392</v>
       </c>
       <c r="E47">
-        <v>0.007340245680376319</v>
+        <v>-0.003583326119463316</v>
       </c>
       <c r="F47">
-        <v>-0.01315823630963598</v>
+        <v>0.002636085886519685</v>
       </c>
       <c r="G47">
-        <v>0.04923949844109608</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03615969713928522</v>
+      </c>
+      <c r="H47">
+        <v>-0.06486738080645717</v>
+      </c>
+      <c r="I47">
+        <v>0.02680322655876325</v>
+      </c>
+      <c r="J47">
+        <v>0.01644146895888062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01437927043371034</v>
+        <v>0.01453821156420847</v>
       </c>
       <c r="C48">
-        <v>0.01316552914022956</v>
+        <v>0.01734106220010503</v>
       </c>
       <c r="D48">
-        <v>-0.0103360481684853</v>
+        <v>-0.004689091159143904</v>
       </c>
       <c r="E48">
-        <v>-0.03878888771081965</v>
+        <v>-0.03907982756985059</v>
       </c>
       <c r="F48">
-        <v>-0.01840094573681231</v>
+        <v>-0.01723507389956191</v>
       </c>
       <c r="G48">
-        <v>0.01164211845573755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01020630872998464</v>
+      </c>
+      <c r="H48">
+        <v>-0.02130820260910445</v>
+      </c>
+      <c r="I48">
+        <v>0.01293993309354292</v>
+      </c>
+      <c r="J48">
+        <v>0.01125594036411776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07928459246938317</v>
+        <v>0.0815489722041681</v>
       </c>
       <c r="C50">
-        <v>0.02497718858034807</v>
+        <v>0.03378684832986065</v>
       </c>
       <c r="D50">
-        <v>-0.01823087672742432</v>
+        <v>-0.01563541421815169</v>
       </c>
       <c r="E50">
-        <v>0.01630422221679939</v>
+        <v>-0.009672693782280348</v>
       </c>
       <c r="F50">
-        <v>-0.01759501613597177</v>
+        <v>-0.002170426036586324</v>
       </c>
       <c r="G50">
-        <v>0.02672295293395119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008939606585150773</v>
+      </c>
+      <c r="H50">
+        <v>-0.04740124139052337</v>
+      </c>
+      <c r="I50">
+        <v>0.02035338840071867</v>
+      </c>
+      <c r="J50">
+        <v>-0.0308856354242972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06801854054159857</v>
+        <v>0.04820105170377196</v>
       </c>
       <c r="C51">
-        <v>-0.02633998432800844</v>
+        <v>-0.007798946075610815</v>
       </c>
       <c r="D51">
-        <v>0.001504919763667764</v>
+        <v>-0.005198219013776259</v>
       </c>
       <c r="E51">
-        <v>-0.06615561394422063</v>
+        <v>-0.09986638266120396</v>
       </c>
       <c r="F51">
-        <v>-0.0563257030453562</v>
+        <v>-0.01024747523077121</v>
       </c>
       <c r="G51">
-        <v>0.01890880308880693</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04449062354788292</v>
+      </c>
+      <c r="H51">
+        <v>-0.05176734651406041</v>
+      </c>
+      <c r="I51">
+        <v>0.04169092255444355</v>
+      </c>
+      <c r="J51">
+        <v>0.01421247249134166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1473874044139942</v>
+        <v>0.1294684989003212</v>
       </c>
       <c r="C53">
-        <v>0.004709501588909518</v>
+        <v>0.03545590145204314</v>
       </c>
       <c r="D53">
-        <v>-0.04287463438268899</v>
+        <v>-0.0480081791475198</v>
       </c>
       <c r="E53">
-        <v>0.01913084761732996</v>
+        <v>0.02411663655759711</v>
       </c>
       <c r="F53">
-        <v>-0.005674143459023253</v>
+        <v>0.01089490295521919</v>
       </c>
       <c r="G53">
-        <v>0.01833787612326655</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02761772197411531</v>
+      </c>
+      <c r="H53">
+        <v>-0.009174793930519471</v>
+      </c>
+      <c r="I53">
+        <v>0.01948365946391132</v>
+      </c>
+      <c r="J53">
+        <v>0.06993736266395531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02409986325245194</v>
+        <v>0.02297076587156017</v>
       </c>
       <c r="C54">
-        <v>-0.007383492864101272</v>
+        <v>0.003963638237648124</v>
       </c>
       <c r="D54">
-        <v>-0.020563053108536</v>
+        <v>-0.02387589184545318</v>
       </c>
       <c r="E54">
-        <v>-0.03305067536642412</v>
+        <v>-0.03710653411111473</v>
       </c>
       <c r="F54">
-        <v>-0.0438181008253252</v>
+        <v>-0.02611516492879525</v>
       </c>
       <c r="G54">
-        <v>0.06077633378865702</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03807011563431035</v>
+      </c>
+      <c r="H54">
+        <v>-0.06576502616635493</v>
+      </c>
+      <c r="I54">
+        <v>0.04742662577967885</v>
+      </c>
+      <c r="J54">
+        <v>-0.008127826400468373</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09782867489167003</v>
+        <v>0.1027982844184323</v>
       </c>
       <c r="C55">
-        <v>-0.00480349147277514</v>
+        <v>0.01612156160732839</v>
       </c>
       <c r="D55">
-        <v>-0.03385711889749443</v>
+        <v>-0.03155317218964488</v>
       </c>
       <c r="E55">
-        <v>-0.01618618077372566</v>
+        <v>0.02372828604195601</v>
       </c>
       <c r="F55">
-        <v>0.01523217840741824</v>
+        <v>-0.02872750038899321</v>
       </c>
       <c r="G55">
-        <v>0.008749101586707929</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0001721892121330733</v>
+      </c>
+      <c r="H55">
+        <v>-0.028043615655051</v>
+      </c>
+      <c r="I55">
+        <v>0.001241400998713878</v>
+      </c>
+      <c r="J55">
+        <v>0.06236801314978956</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1805794697395628</v>
+        <v>0.1683229610212132</v>
       </c>
       <c r="C56">
-        <v>-0.02512472619991661</v>
+        <v>0.01594063097144988</v>
       </c>
       <c r="D56">
-        <v>-0.08752280127024517</v>
+        <v>-0.09059334830996719</v>
       </c>
       <c r="E56">
-        <v>0.05936749546735588</v>
+        <v>0.07351521639696927</v>
       </c>
       <c r="F56">
-        <v>0.05705654556702931</v>
+        <v>0.004540397512146578</v>
       </c>
       <c r="G56">
-        <v>-0.0139685351308367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01986675311052382</v>
+      </c>
+      <c r="H56">
+        <v>0.03041247641563296</v>
+      </c>
+      <c r="I56">
+        <v>-0.02579049646984305</v>
+      </c>
+      <c r="J56">
+        <v>0.0864501957656541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09468635394446182</v>
+        <v>0.07355122082114661</v>
       </c>
       <c r="C57">
-        <v>0.01757124171093203</v>
+        <v>0.02286224307750146</v>
       </c>
       <c r="D57">
-        <v>-0.0148584462763271</v>
+        <v>-0.007431864758946371</v>
       </c>
       <c r="E57">
-        <v>-0.07272819612946169</v>
+        <v>-0.07574449610079044</v>
       </c>
       <c r="F57">
-        <v>-0.002405749946738469</v>
+        <v>-0.01968435731308666</v>
       </c>
       <c r="G57">
-        <v>0.04103567999906414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.001570308689209158</v>
+      </c>
+      <c r="H57">
+        <v>-0.04333730897653187</v>
+      </c>
+      <c r="I57">
+        <v>-0.01119796146577501</v>
+      </c>
+      <c r="J57">
+        <v>0.02385458278808008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1620191109097701</v>
+        <v>0.1996347004014294</v>
       </c>
       <c r="C58">
-        <v>0.0005267715628642785</v>
+        <v>0.03052290124210339</v>
       </c>
       <c r="D58">
-        <v>0.06788566724249737</v>
+        <v>0.02100903263593376</v>
       </c>
       <c r="E58">
-        <v>-0.1098535236561242</v>
+        <v>-0.1710100655751209</v>
       </c>
       <c r="F58">
-        <v>0.08516152521959715</v>
+        <v>-0.03717457069699453</v>
       </c>
       <c r="G58">
-        <v>0.2703040386282343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.173060565768677</v>
+      </c>
+      <c r="H58">
+        <v>-0.3273167592801635</v>
+      </c>
+      <c r="I58">
+        <v>0.1229092061374969</v>
+      </c>
+      <c r="J58">
+        <v>-0.4424466540557883</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.0139282608028554</v>
+        <v>0.01800595531844168</v>
       </c>
       <c r="C59">
-        <v>-0.202497063683442</v>
+        <v>-0.1991591824198031</v>
       </c>
       <c r="D59">
-        <v>-0.01742112320498878</v>
+        <v>-0.02040664107044713</v>
       </c>
       <c r="E59">
-        <v>-0.0395993374213196</v>
+        <v>-0.05579456518721301</v>
       </c>
       <c r="F59">
-        <v>-0.005218088693015284</v>
+        <v>0.009435716296213353</v>
       </c>
       <c r="G59">
-        <v>-0.03849663717378915</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002775502944745627</v>
+      </c>
+      <c r="H59">
+        <v>0.03301873963737011</v>
+      </c>
+      <c r="I59">
+        <v>0.0832144211911775</v>
+      </c>
+      <c r="J59">
+        <v>0.002497218473468738</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1760274297134077</v>
+        <v>0.1802701927652773</v>
       </c>
       <c r="C60">
-        <v>-0.1276798617908748</v>
+        <v>-0.06934541586064712</v>
       </c>
       <c r="D60">
-        <v>-0.01576134502685275</v>
+        <v>-0.02337568495644611</v>
       </c>
       <c r="E60">
-        <v>-0.1783347874483278</v>
+        <v>-0.2041559739136889</v>
       </c>
       <c r="F60">
-        <v>-0.03763407131818542</v>
+        <v>0.01521620205636925</v>
       </c>
       <c r="G60">
-        <v>-0.1708408245407739</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06940226934078031</v>
+      </c>
+      <c r="H60">
+        <v>0.2265313536236435</v>
+      </c>
+      <c r="I60">
+        <v>-0.118341585534791</v>
+      </c>
+      <c r="J60">
+        <v>-0.01941243399710697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04977298408435677</v>
+        <v>0.03941032675069576</v>
       </c>
       <c r="C61">
-        <v>0.001774225174300875</v>
+        <v>0.01589462400301532</v>
       </c>
       <c r="D61">
-        <v>0.01296684990503862</v>
+        <v>-0.0005372547478657037</v>
       </c>
       <c r="E61">
-        <v>-0.04546918149635725</v>
+        <v>-0.04855349304618645</v>
       </c>
       <c r="F61">
-        <v>-0.01574123389600123</v>
+        <v>-0.007626784622899143</v>
       </c>
       <c r="G61">
-        <v>-0.02210552445367568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.006357598601676093</v>
+      </c>
+      <c r="H61">
+        <v>-0.004975512345659659</v>
+      </c>
+      <c r="I61">
+        <v>-0.03246901624983273</v>
+      </c>
+      <c r="J61">
+        <v>-0.0250747811255773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03806025079774774</v>
+        <v>0.02990549039536163</v>
       </c>
       <c r="C63">
-        <v>-0.01173820554011748</v>
+        <v>0.009458830583798601</v>
       </c>
       <c r="D63">
-        <v>-0.008236166700857112</v>
+        <v>-0.007769451415234643</v>
       </c>
       <c r="E63">
-        <v>-0.04473661820012724</v>
+        <v>-0.03672243300471359</v>
       </c>
       <c r="F63">
-        <v>-0.01325228377112003</v>
+        <v>-0.01504523977100526</v>
       </c>
       <c r="G63">
-        <v>0.0212229677680623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.009653782053055256</v>
+      </c>
+      <c r="H63">
+        <v>-0.0410570681778195</v>
+      </c>
+      <c r="I63">
+        <v>0.02837310920304667</v>
+      </c>
+      <c r="J63">
+        <v>0.04406228783719436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.0910232380309684</v>
+        <v>0.06704701295233585</v>
       </c>
       <c r="C64">
-        <v>0.02000833161041891</v>
+        <v>0.03659590825925484</v>
       </c>
       <c r="D64">
-        <v>-0.04612738668859443</v>
+        <v>-0.03201201236199484</v>
       </c>
       <c r="E64">
-        <v>-0.07318517470823491</v>
+        <v>-0.05407626148008754</v>
       </c>
       <c r="F64">
-        <v>-0.08970037855637479</v>
+        <v>-0.06026007971371775</v>
       </c>
       <c r="G64">
-        <v>-0.04996107577422246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06839401555732701</v>
+      </c>
+      <c r="H64">
+        <v>0.01490211696999435</v>
+      </c>
+      <c r="I64">
+        <v>0.0119832091889457</v>
+      </c>
+      <c r="J64">
+        <v>0.05878915882979311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.0113713755855856</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004100812965371348</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0008462497072687956</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003833770759189118</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002984977859117732</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01344106543412044</v>
+      </c>
+      <c r="H65">
+        <v>-0.002319841230188019</v>
+      </c>
+      <c r="I65">
+        <v>0.0006171558504647768</v>
+      </c>
+      <c r="J65">
+        <v>-0.002248378318307496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1026004308653095</v>
+        <v>0.07471543516568033</v>
       </c>
       <c r="C66">
-        <v>0.009572071565901405</v>
+        <v>0.04105371203957862</v>
       </c>
       <c r="D66">
-        <v>-0.02598609865328438</v>
+        <v>-0.03990736129717435</v>
       </c>
       <c r="E66">
-        <v>-0.09134415372689358</v>
+        <v>-0.08765296121095269</v>
       </c>
       <c r="F66">
-        <v>-0.03563213261478714</v>
+        <v>-0.009794104115190804</v>
       </c>
       <c r="G66">
-        <v>-0.0006668765254264503</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01174027425943901</v>
+      </c>
+      <c r="H66">
+        <v>-0.0149626301018767</v>
+      </c>
+      <c r="I66">
+        <v>-0.04902847895457591</v>
+      </c>
+      <c r="J66">
+        <v>0.01318941342200159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.0603025003705128</v>
+        <v>0.04051399956360315</v>
       </c>
       <c r="C67">
-        <v>-0.02170444052498586</v>
+        <v>-0.009455831375210085</v>
       </c>
       <c r="D67">
-        <v>-0.00666894077182725</v>
+        <v>-0.004593240689697165</v>
       </c>
       <c r="E67">
-        <v>-0.03346141777563713</v>
+        <v>-0.04276575893045437</v>
       </c>
       <c r="F67">
-        <v>-0.00990057313873611</v>
+        <v>-0.009804265711227526</v>
       </c>
       <c r="G67">
-        <v>0.0294726522794144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02579414262567455</v>
+      </c>
+      <c r="H67">
+        <v>0.001071177103437305</v>
+      </c>
+      <c r="I67">
+        <v>-0.03641931690127699</v>
+      </c>
+      <c r="J67">
+        <v>-0.01228290333146823</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01296602209240962</v>
+        <v>0.02681356859896512</v>
       </c>
       <c r="C68">
-        <v>-0.2455550229897999</v>
+        <v>-0.2380416768115499</v>
       </c>
       <c r="D68">
-        <v>0.003491656867714099</v>
+        <v>-0.01183310093857019</v>
       </c>
       <c r="E68">
-        <v>-0.02994967323424621</v>
+        <v>-0.03967765890139253</v>
       </c>
       <c r="F68">
-        <v>0.009433455897211672</v>
+        <v>-0.002601274985822185</v>
       </c>
       <c r="G68">
-        <v>-0.02594482688665289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01450937145483198</v>
+      </c>
+      <c r="H68">
+        <v>0.03873827935745092</v>
+      </c>
+      <c r="I68">
+        <v>0.1719589785727735</v>
+      </c>
+      <c r="J68">
+        <v>0.02780368097701537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06496661528331484</v>
+        <v>0.06844342476362007</v>
       </c>
       <c r="C69">
-        <v>0.002686806618716218</v>
+        <v>0.01225224224280811</v>
       </c>
       <c r="D69">
-        <v>-0.02753032103977544</v>
+        <v>-0.02919269205227757</v>
       </c>
       <c r="E69">
-        <v>-0.002305400188727374</v>
+        <v>-0.01304850966845937</v>
       </c>
       <c r="F69">
-        <v>-0.009758200404315052</v>
+        <v>0.008102161889382332</v>
       </c>
       <c r="G69">
-        <v>0.0198753445059258</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02856329954742013</v>
+      </c>
+      <c r="H69">
+        <v>-0.04596965724744765</v>
+      </c>
+      <c r="I69">
+        <v>0.0006420172464487404</v>
+      </c>
+      <c r="J69">
+        <v>0.01054808158483663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.004984777743882805</v>
+        <v>0.03288310858200385</v>
       </c>
       <c r="C71">
-        <v>-0.2392681639407622</v>
+        <v>-0.2409624500912844</v>
       </c>
       <c r="D71">
-        <v>0.007517386004141072</v>
+        <v>0.009508932483631945</v>
       </c>
       <c r="E71">
-        <v>-0.0549853803597059</v>
+        <v>-0.06344417099263087</v>
       </c>
       <c r="F71">
-        <v>-0.0004177364757512195</v>
+        <v>0.02167996317973036</v>
       </c>
       <c r="G71">
-        <v>-0.110851355390151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.003595056668060401</v>
+      </c>
+      <c r="H71">
+        <v>0.05525783942330955</v>
+      </c>
+      <c r="I71">
+        <v>0.1550161722794242</v>
+      </c>
+      <c r="J71">
+        <v>-0.009105182348867313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1050620532881064</v>
+        <v>0.1136447539756039</v>
       </c>
       <c r="C72">
-        <v>-0.02782836550693262</v>
+        <v>-0.008656461318226723</v>
       </c>
       <c r="D72">
-        <v>-0.04244415097572547</v>
+        <v>-0.05957102067704229</v>
       </c>
       <c r="E72">
-        <v>-0.06748985285390666</v>
+        <v>-0.08120896495714697</v>
       </c>
       <c r="F72">
-        <v>-0.007708296806548734</v>
+        <v>-0.0288073846399879</v>
       </c>
       <c r="G72">
-        <v>0.03330260267011306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02775526932274128</v>
+      </c>
+      <c r="H72">
+        <v>-0.002945905208781819</v>
+      </c>
+      <c r="I72">
+        <v>0.004609736014525054</v>
+      </c>
+      <c r="J72">
+        <v>-0.07593207039587765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2689622069326457</v>
+        <v>0.2731240767212315</v>
       </c>
       <c r="C73">
-        <v>-0.2263736833026503</v>
+        <v>-0.1454752991472297</v>
       </c>
       <c r="D73">
-        <v>0.02743502474521907</v>
+        <v>-0.00180068377746863</v>
       </c>
       <c r="E73">
-        <v>-0.2835130407312936</v>
+        <v>-0.3160982784570294</v>
       </c>
       <c r="F73">
-        <v>-0.006028725861837581</v>
+        <v>0.03746861431715406</v>
       </c>
       <c r="G73">
-        <v>-0.4070788635501585</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.154811619038315</v>
+      </c>
+      <c r="H73">
+        <v>0.4152050065233206</v>
+      </c>
+      <c r="I73">
+        <v>-0.3445775871424765</v>
+      </c>
+      <c r="J73">
+        <v>-0.1988271494145988</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1558785232372423</v>
+        <v>0.1526649905278972</v>
       </c>
       <c r="C74">
-        <v>-0.01350173155296118</v>
+        <v>0.01074434248470485</v>
       </c>
       <c r="D74">
-        <v>-0.05112041129561681</v>
+        <v>-0.0484462861915494</v>
       </c>
       <c r="E74">
-        <v>-0.007212018264190935</v>
+        <v>0.03196986788863258</v>
       </c>
       <c r="F74">
-        <v>0.04314146947749395</v>
+        <v>0.002709956573825907</v>
       </c>
       <c r="G74">
-        <v>-0.01672603267152404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01521331962372854</v>
+      </c>
+      <c r="H74">
+        <v>0.0224238027423765</v>
+      </c>
+      <c r="I74">
+        <v>-0.02687791397562855</v>
+      </c>
+      <c r="J74">
+        <v>0.0921541425829506</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.237948411574753</v>
+        <v>0.2432366262978197</v>
       </c>
       <c r="C75">
-        <v>-0.01925858728499884</v>
+        <v>0.02229475492489037</v>
       </c>
       <c r="D75">
-        <v>-0.06756032182252483</v>
+        <v>-0.1033877801851627</v>
       </c>
       <c r="E75">
-        <v>0.1101720801563311</v>
+        <v>0.120831747547581</v>
       </c>
       <c r="F75">
-        <v>0.04568181612395503</v>
+        <v>0.03330032481795066</v>
       </c>
       <c r="G75">
-        <v>-0.008811322110867813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.01119690881756304</v>
+      </c>
+      <c r="H75">
+        <v>0.01792958841379082</v>
+      </c>
+      <c r="I75">
+        <v>0.01248442156452217</v>
+      </c>
+      <c r="J75">
+        <v>0.1583416554630923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2397559946311852</v>
+        <v>0.2598802509429817</v>
       </c>
       <c r="C76">
-        <v>-0.01997772648722741</v>
+        <v>0.01282515294982308</v>
       </c>
       <c r="D76">
-        <v>-0.110283179138536</v>
+        <v>-0.1332557476699759</v>
       </c>
       <c r="E76">
-        <v>0.08692809210079154</v>
+        <v>0.1490489961498755</v>
       </c>
       <c r="F76">
-        <v>0.05123985888700316</v>
+        <v>0.006570044032535759</v>
       </c>
       <c r="G76">
-        <v>-0.02236705172914077</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.02414125054537928</v>
+      </c>
+      <c r="H76">
+        <v>0.01303659783214801</v>
+      </c>
+      <c r="I76">
+        <v>-0.05807153028042508</v>
+      </c>
+      <c r="J76">
+        <v>0.1787623176805043</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1260008048022967</v>
+        <v>0.1320631335940363</v>
       </c>
       <c r="C77">
-        <v>0.01084622542441215</v>
+        <v>0.04247113575552949</v>
       </c>
       <c r="D77">
-        <v>0.07524913252210423</v>
+        <v>0.05843759739518051</v>
       </c>
       <c r="E77">
-        <v>-0.162584662292569</v>
+        <v>-0.1603520192582492</v>
       </c>
       <c r="F77">
-        <v>0.003079488510477166</v>
+        <v>-0.05782803897227873</v>
       </c>
       <c r="G77">
-        <v>0.137874955046977</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0256237751101645</v>
+      </c>
+      <c r="H77">
+        <v>-0.1533724244527214</v>
+      </c>
+      <c r="I77">
+        <v>0.1613227210420256</v>
+      </c>
+      <c r="J77">
+        <v>0.09538711416913552</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09599558675250563</v>
+        <v>0.09131788093294028</v>
       </c>
       <c r="C78">
-        <v>0.024618501942507</v>
+        <v>0.05042790019099437</v>
       </c>
       <c r="D78">
-        <v>0.02579391946450857</v>
+        <v>0.005272565220554711</v>
       </c>
       <c r="E78">
-        <v>-0.07677105301151463</v>
+        <v>-0.08361590249905212</v>
       </c>
       <c r="F78">
-        <v>-0.007278985349702323</v>
+        <v>-0.04382032229361885</v>
       </c>
       <c r="G78">
-        <v>-0.0252570529065124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.004545786136818125</v>
+      </c>
+      <c r="H78">
+        <v>-0.01015388253920626</v>
+      </c>
+      <c r="I78">
+        <v>0.03247371393729433</v>
+      </c>
+      <c r="J78">
+        <v>0.01583847714568024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07522151096568398</v>
+        <v>0.09115497606055933</v>
       </c>
       <c r="C80">
-        <v>-0.01501350896606851</v>
+        <v>-0.09260692388148854</v>
       </c>
       <c r="D80">
-        <v>0.00979243322455535</v>
+        <v>0.1776814459332107</v>
       </c>
       <c r="E80">
-        <v>0.01520308802684696</v>
+        <v>0.2516934867027281</v>
       </c>
       <c r="F80">
-        <v>0.0612550334367471</v>
+        <v>-0.9148907816995264</v>
       </c>
       <c r="G80">
-        <v>0.2431384300956671</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.06565216430672603</v>
+      </c>
+      <c r="H80">
+        <v>0.1308159965132771</v>
+      </c>
+      <c r="I80">
+        <v>-0.05034741596588772</v>
+      </c>
+      <c r="J80">
+        <v>-0.1050312679598128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1647403461311246</v>
+        <v>0.173214242500506</v>
       </c>
       <c r="C81">
-        <v>-0.0107761986057991</v>
+        <v>0.009089269671761395</v>
       </c>
       <c r="D81">
-        <v>-0.05965801508906899</v>
+        <v>-0.08915657343143779</v>
       </c>
       <c r="E81">
-        <v>0.1174693241271995</v>
+        <v>0.1380036234402987</v>
       </c>
       <c r="F81">
-        <v>0.07152451157239979</v>
+        <v>0.0364526976470631</v>
       </c>
       <c r="G81">
-        <v>-0.007222805458325835</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01930637205564712</v>
+      </c>
+      <c r="H81">
+        <v>0.009054559116468536</v>
+      </c>
+      <c r="I81">
+        <v>-0.00575368225104582</v>
+      </c>
+      <c r="J81">
+        <v>0.09600464848824038</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.08100706547480993</v>
+        <v>0.06550793084857447</v>
       </c>
       <c r="C83">
-        <v>0.02408877465753179</v>
+        <v>0.03379215071609457</v>
       </c>
       <c r="D83">
-        <v>0.09416201413825376</v>
+        <v>0.04497414200688164</v>
       </c>
       <c r="E83">
-        <v>-0.03815919726026291</v>
+        <v>-0.06267382442870657</v>
       </c>
       <c r="F83">
-        <v>-0.0693994428218014</v>
+        <v>0.005851073336998578</v>
       </c>
       <c r="G83">
-        <v>0.02679942650238295</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04881608743530695</v>
+      </c>
+      <c r="H83">
+        <v>-0.03530774303639565</v>
+      </c>
+      <c r="I83">
+        <v>0.01216991624559709</v>
+      </c>
+      <c r="J83">
+        <v>0.09043334425858074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2458586986366903</v>
+        <v>0.2554861843492591</v>
       </c>
       <c r="C85">
-        <v>0.04006651620382715</v>
+        <v>0.05411137652393088</v>
       </c>
       <c r="D85">
-        <v>-0.05835737783308802</v>
+        <v>-0.08805423782520962</v>
       </c>
       <c r="E85">
-        <v>0.1194931013733165</v>
+        <v>0.148336568899837</v>
       </c>
       <c r="F85">
-        <v>0.04127509525608655</v>
+        <v>0.00413522635806378</v>
       </c>
       <c r="G85">
-        <v>0.01239268608753808</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01496002962779012</v>
+      </c>
+      <c r="H85">
+        <v>-0.02227639968329229</v>
+      </c>
+      <c r="I85">
+        <v>-0.003893420364882258</v>
+      </c>
+      <c r="J85">
+        <v>0.1892663959023291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04679665462913772</v>
+        <v>0.03133625177151993</v>
       </c>
       <c r="C86">
-        <v>0.02811600308496674</v>
+        <v>0.04156916869001377</v>
       </c>
       <c r="D86">
-        <v>-0.002941720579449043</v>
+        <v>-0.003405155202401182</v>
       </c>
       <c r="E86">
-        <v>-0.05073660592076104</v>
+        <v>-0.05566824976988208</v>
       </c>
       <c r="F86">
-        <v>0.004144760083539719</v>
+        <v>-0.03693741605606544</v>
       </c>
       <c r="G86">
-        <v>0.03044424293910805</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.00316890415834229</v>
+      </c>
+      <c r="H86">
+        <v>-0.03859988982451633</v>
+      </c>
+      <c r="I86">
+        <v>0.06654562155665585</v>
+      </c>
+      <c r="J86">
+        <v>-0.02193312813907411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03113497773550864</v>
+        <v>0.03903150086690081</v>
       </c>
       <c r="C87">
-        <v>-0.05142950060851313</v>
+        <v>-0.02452975504265183</v>
       </c>
       <c r="D87">
-        <v>-0.009143371625524654</v>
+        <v>-0.001236947102245616</v>
       </c>
       <c r="E87">
-        <v>-0.06180248596551355</v>
+        <v>-0.08852975466228245</v>
       </c>
       <c r="F87">
-        <v>-0.03034056149318922</v>
+        <v>-0.02387070287380133</v>
       </c>
       <c r="G87">
-        <v>-0.1277484870756682</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.01571332053404027</v>
+      </c>
+      <c r="H87">
+        <v>0.01458280365972759</v>
+      </c>
+      <c r="I87">
+        <v>-0.000504161254605588</v>
+      </c>
+      <c r="J87">
+        <v>-0.09009156970634812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03810446479989293</v>
+        <v>0.02222323706017369</v>
       </c>
       <c r="C88">
-        <v>0.02038573593569521</v>
+        <v>0.01687545660197133</v>
       </c>
       <c r="D88">
-        <v>-0.006228594168303341</v>
+        <v>-0.01040610700058223</v>
       </c>
       <c r="E88">
-        <v>-0.0006224908777147238</v>
+        <v>-0.001666150518914955</v>
       </c>
       <c r="F88">
-        <v>-0.0001226721069175311</v>
+        <v>-0.02141578967656503</v>
       </c>
       <c r="G88">
-        <v>0.06547987113803364</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0335603939759971</v>
+      </c>
+      <c r="H88">
+        <v>-0.04394965376321786</v>
+      </c>
+      <c r="I88">
+        <v>-0.01130921465322158</v>
+      </c>
+      <c r="J88">
+        <v>-0.02401776813785345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.0293024389645707</v>
+        <v>0.03903338360081367</v>
       </c>
       <c r="C89">
-        <v>-0.4306682779139218</v>
+        <v>-0.3995068489761129</v>
       </c>
       <c r="D89">
-        <v>0.09595805376318649</v>
+        <v>0.03149518885083868</v>
       </c>
       <c r="E89">
-        <v>0.04287960034717274</v>
+        <v>-0.0423341319431049</v>
       </c>
       <c r="F89">
-        <v>-0.0288691562956625</v>
+        <v>0.05184311185561124</v>
       </c>
       <c r="G89">
-        <v>0.03399440048501726</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.06695335248003174</v>
+      </c>
+      <c r="H89">
+        <v>0.00330833603409968</v>
+      </c>
+      <c r="I89">
+        <v>0.2804814694948267</v>
+      </c>
+      <c r="J89">
+        <v>0.08483771559970968</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02873058612002912</v>
+        <v>0.02297486375295222</v>
       </c>
       <c r="C90">
-        <v>-0.3086578907623095</v>
+        <v>-0.3332999889490417</v>
       </c>
       <c r="D90">
-        <v>0.02148615750191364</v>
+        <v>0.01295282931206391</v>
       </c>
       <c r="E90">
-        <v>-0.02147283407446799</v>
+        <v>-0.02606439428664714</v>
       </c>
       <c r="F90">
-        <v>-0.0003754521462900264</v>
+        <v>-0.002260947832375057</v>
       </c>
       <c r="G90">
-        <v>-0.0754678964821166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01252698343965785</v>
+      </c>
+      <c r="H90">
+        <v>0.05167795823619916</v>
+      </c>
+      <c r="I90">
+        <v>0.1962108630346373</v>
+      </c>
+      <c r="J90">
+        <v>0.04709308558825448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.3125573375211754</v>
+        <v>0.3178441849367396</v>
       </c>
       <c r="C91">
-        <v>0.009434559671821842</v>
+        <v>0.03921699294919935</v>
       </c>
       <c r="D91">
-        <v>-0.08235386119625132</v>
+        <v>-0.1100223110976344</v>
       </c>
       <c r="E91">
-        <v>0.261125087449771</v>
+        <v>0.2760363062476731</v>
       </c>
       <c r="F91">
-        <v>0.1271060506210844</v>
+        <v>0.05882147010019132</v>
       </c>
       <c r="G91">
-        <v>0.08752944721408808</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02810473635018346</v>
+      </c>
+      <c r="H91">
+        <v>0.01203131556053745</v>
+      </c>
+      <c r="I91">
+        <v>-0.009862942188918511</v>
+      </c>
+      <c r="J91">
+        <v>0.3427179232058945</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04256745550082424</v>
+        <v>0.06179604783234168</v>
       </c>
       <c r="C92">
-        <v>-0.4488591711261656</v>
+        <v>-0.4758401812381544</v>
       </c>
       <c r="D92">
-        <v>0.2010918881956784</v>
+        <v>0.05426359658379432</v>
       </c>
       <c r="E92">
-        <v>0.1153885564638731</v>
+        <v>0.1256607600064601</v>
       </c>
       <c r="F92">
-        <v>0.07628636561570167</v>
+        <v>0.05564606959339136</v>
       </c>
       <c r="G92">
-        <v>0.523271286744987</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.07865053341827796</v>
+      </c>
+      <c r="H92">
+        <v>-0.5759515044010798</v>
+      </c>
+      <c r="I92">
+        <v>-0.6089139575082554</v>
+      </c>
+      <c r="J92">
+        <v>-0.02715439492355056</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04118984501525454</v>
+        <v>0.02388148521134992</v>
       </c>
       <c r="C93">
-        <v>-0.3616218362060721</v>
+        <v>-0.4057687595879794</v>
       </c>
       <c r="D93">
-        <v>0.06828508435543972</v>
+        <v>0.03904709616179537</v>
       </c>
       <c r="E93">
-        <v>0.06057512113280645</v>
+        <v>0.02723440147973397</v>
       </c>
       <c r="F93">
-        <v>0.02095039770960132</v>
+        <v>0.03101516894726824</v>
       </c>
       <c r="G93">
-        <v>0.002705353273990837</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03615450299863968</v>
+      </c>
+      <c r="H93">
+        <v>0.06268242425847353</v>
+      </c>
+      <c r="I93">
+        <v>0.2091555589088612</v>
+      </c>
+      <c r="J93">
+        <v>0.06581726160664644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3044260427714183</v>
+        <v>0.3243028338336651</v>
       </c>
       <c r="C94">
-        <v>-0.02416864861165119</v>
+        <v>0.0092321268000208</v>
       </c>
       <c r="D94">
-        <v>-0.07950664848472049</v>
+        <v>-0.1708089676719702</v>
       </c>
       <c r="E94">
-        <v>0.4412677111635789</v>
+        <v>0.3714673543041458</v>
       </c>
       <c r="F94">
-        <v>0.3981467181707309</v>
+        <v>0.1274520179019557</v>
       </c>
       <c r="G94">
-        <v>-0.03655734723257081</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1806411930432941</v>
+      </c>
+      <c r="H94">
+        <v>-0.07856818646236577</v>
+      </c>
+      <c r="I94">
+        <v>0.2820286385867698</v>
+      </c>
+      <c r="J94">
+        <v>-0.5575967640262309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1870060859350243</v>
+        <v>0.1413291333351276</v>
       </c>
       <c r="C95">
-        <v>-0.04197303508873972</v>
+        <v>0.05580922275955675</v>
       </c>
       <c r="D95">
-        <v>-0.01690367360040067</v>
+        <v>-0.03931243824487242</v>
       </c>
       <c r="E95">
-        <v>0.3752959607366633</v>
+        <v>-0.007333144765648508</v>
       </c>
       <c r="F95">
-        <v>-0.8586424182345952</v>
+        <v>0.1091412003774652</v>
       </c>
       <c r="G95">
-        <v>0.03910102334341494</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9190367029294674</v>
+      </c>
+      <c r="H95">
+        <v>0.1115324192645348</v>
+      </c>
+      <c r="I95">
+        <v>-0.005090796032039443</v>
+      </c>
+      <c r="J95">
+        <v>-0.2382356449204545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2084423005273612</v>
+        <v>0.2070295457881873</v>
       </c>
       <c r="C98">
-        <v>-0.14750816636514</v>
+        <v>-0.09201974648854333</v>
       </c>
       <c r="D98">
-        <v>0.02167029190363943</v>
+        <v>0.00615207509550906</v>
       </c>
       <c r="E98">
-        <v>-0.09293282734814211</v>
+        <v>-0.1593985899707597</v>
       </c>
       <c r="F98">
-        <v>-0.01032221186527007</v>
+        <v>0.05754244143974702</v>
       </c>
       <c r="G98">
-        <v>-0.2668677763550917</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08381394193778235</v>
+      </c>
+      <c r="H98">
+        <v>0.2920418468224161</v>
+      </c>
+      <c r="I98">
+        <v>-0.219517211643363</v>
+      </c>
+      <c r="J98">
+        <v>-0.05303516610259389</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02109395983925174</v>
+        <v>0.01359249562874983</v>
       </c>
       <c r="C101">
-        <v>0.0156240479215172</v>
+        <v>0.02858406034323202</v>
       </c>
       <c r="D101">
-        <v>-0.01646801887179651</v>
+        <v>-0.02022535327109564</v>
       </c>
       <c r="E101">
-        <v>-0.041709624372285</v>
+        <v>-0.06021599252898249</v>
       </c>
       <c r="F101">
-        <v>-0.01712706784291164</v>
+        <v>-0.04277051624114381</v>
       </c>
       <c r="G101">
-        <v>0.04798296369874905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.002168996940812994</v>
+      </c>
+      <c r="H101">
+        <v>-0.1194871410401659</v>
+      </c>
+      <c r="I101">
+        <v>0.01608354484039374</v>
+      </c>
+      <c r="J101">
+        <v>-0.08345677121664574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1199239337684004</v>
+        <v>0.120768524721907</v>
       </c>
       <c r="C102">
-        <v>-0.002625872867620048</v>
+        <v>0.02539602774927045</v>
       </c>
       <c r="D102">
-        <v>-0.04919666406130575</v>
+        <v>-0.05472345426081029</v>
       </c>
       <c r="E102">
-        <v>0.07215809267218495</v>
+        <v>0.0845103587316776</v>
       </c>
       <c r="F102">
-        <v>-0.01644091193724511</v>
+        <v>0.002545943643584063</v>
       </c>
       <c r="G102">
-        <v>0.01483987518734599</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03721540360678603</v>
+      </c>
+      <c r="H102">
+        <v>0.007086382737334046</v>
+      </c>
+      <c r="I102">
+        <v>0.02337031930466459</v>
+      </c>
+      <c r="J102">
+        <v>0.06441794513450134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01667739608970732</v>
+        <v>0.02054926500410801</v>
       </c>
       <c r="C103">
-        <v>-0.0006611042262705663</v>
+        <v>0.008626056305271796</v>
       </c>
       <c r="D103">
-        <v>-0.01630746768874494</v>
+        <v>-0.01712440718934528</v>
       </c>
       <c r="E103">
-        <v>0.02836027973811298</v>
+        <v>0.01549792872743087</v>
       </c>
       <c r="F103">
-        <v>0.01198314177397076</v>
+        <v>0.004941725588673186</v>
       </c>
       <c r="G103">
-        <v>-0.006820904439180105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01175642592888517</v>
+      </c>
+      <c r="H103">
+        <v>-0.003828034908282565</v>
+      </c>
+      <c r="I103">
+        <v>0.02197201984874603</v>
+      </c>
+      <c r="J103">
+        <v>0.002794037556859308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
